--- a/Transplumb/28882/Transplumb__resources.xlsx
+++ b/Transplumb/28882/Transplumb__resources.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="85">
   <si>
     <t>Rich Type</t>
   </si>
@@ -58,13 +58,13 @@
     <t>checklist</t>
   </si>
   <si>
-    <t>Events QA ITP</t>
+    <t>Events Kitchen QA</t>
   </si>
   <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>18275563-af09-4f37-a80a-2f4160dad7a5</t>
+    <t>1e8676d5-ec75-4a33-9b40-1eac5655a2e1</t>
   </si>
   <si>
     <t>checkpoint-status</t>
@@ -79,7 +79,10 @@
     <t>Kitchen layout is correct as per current drawings issued by client</t>
   </si>
   <si>
-    <t>Do all gas appliances have the minimum 500mm clearance from combustible surfaces?</t>
+    <t>Has a gas test been completed</t>
+  </si>
+  <si>
+    <t>Do all gas appliances have the minimum 500mm clearnace from combustable surfaces?</t>
   </si>
   <si>
     <t>Do all gas appliances have an isolation valve installed and is valve in good condition?</t>
@@ -91,22 +94,10 @@
     <t>Are gas flexible hoses installed off the floor?</t>
   </si>
   <si>
-    <t>Have all gas flexible hoses been installed with slack for expansion?</t>
-  </si>
-  <si>
     <t>Are the gas LPG bottles installed with the minimum 1500mm clearance from an ignition source and secured to the base plate with chain?</t>
   </si>
   <si>
-    <t>Have all gas appliance been commissioned? Are they working as intended?</t>
-  </si>
-  <si>
-    <t>Has all tiger tail been installed neatly free of deformation in hoses?</t>
-  </si>
-  <si>
-    <t>Are all sinks,basins and appliance waste points connected?</t>
-  </si>
-  <si>
-    <t>Are all sinks, basin and appliance water points connected?</t>
+    <t>Have all water and waste pipes been installed neatly?</t>
   </si>
   <si>
     <t>Is hot water unit connected and working as required?</t>
@@ -118,16 +109,52 @@
     <t>Are sullage tanks and sewer connections in place and connected as required?</t>
   </si>
   <si>
-    <t>All water points have been checked for cross connections</t>
-  </si>
-  <si>
-    <t>All water pipe has been installed neatly</t>
-  </si>
-  <si>
-    <t>All water and waste has been checked for leaks and repaired as required</t>
-  </si>
-  <si>
-    <t>Have all excess plumbing materials been removed from kitchen ready for handover?</t>
+    <t>Is water live to kitchen and has all water and waste been checked for leaks and repaired if required</t>
+  </si>
+  <si>
+    <t>Have all appliances been commissioned? Are they working as intended?</t>
+  </si>
+  <si>
+    <t>Area Clean</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>signoff</t>
+  </si>
+  <si>
+    <t>SIGN OFF</t>
+  </si>
+  <si>
+    <t>Transplumb Fire Plug QA</t>
+  </si>
+  <si>
+    <t>73c1f3f1-b605-40c0-8fb4-c9d3b92dd900</t>
+  </si>
+  <si>
+    <t>Has a Take 5/SWMS been completed before works start</t>
+  </si>
+  <si>
+    <t>Fire Plug Number</t>
+  </si>
+  <si>
+    <t>Fire Plug Location IB or OB (Insert Maps Location Screenshot) Photo Required</t>
+  </si>
+  <si>
+    <t>Fire Plug Isolation Valve Location (Insert Maps Location Screenshot) Photo Required</t>
+  </si>
+  <si>
+    <t>Is the current hydrant cover adequately sized and positioned for maintanance (Photo Required)</t>
+  </si>
+  <si>
+    <t>Has any maintenance works been completed</t>
+  </si>
+  <si>
+    <t>COMMENTS</t>
+  </si>
+  <si>
+    <t>Final Sign off</t>
   </si>
   <si>
     <t>Transplumb Events Asset I.D</t>
@@ -154,70 +181,7 @@
     <t>Current Location</t>
   </si>
   <si>
-    <t>holdpoint</t>
-  </si>
-  <si>
-    <t>signoff</t>
-  </si>
-  <si>
     <t>Staff Sign Out</t>
-  </si>
-  <si>
-    <t>Events Kitchen QA</t>
-  </si>
-  <si>
-    <t>1e8676d5-ec75-4a33-9b40-1eac5655a2e1</t>
-  </si>
-  <si>
-    <t>Has a gas test been completed</t>
-  </si>
-  <si>
-    <t>Do all gas appliances have the minimum 500mm clearnace from combustable surfaces?</t>
-  </si>
-  <si>
-    <t>Have all water and waste pipes been installed neatly?</t>
-  </si>
-  <si>
-    <t>Is water live to kitchen and has all water and waste been checked for leaks and repaired if required</t>
-  </si>
-  <si>
-    <t>Have all appliances been commissioned? Are they working as intended?</t>
-  </si>
-  <si>
-    <t>Area Clean</t>
-  </si>
-  <si>
-    <t>SIGN OFF</t>
-  </si>
-  <si>
-    <t>Transplumb Fire Plug QA</t>
-  </si>
-  <si>
-    <t>73c1f3f1-b605-40c0-8fb4-c9d3b92dd900</t>
-  </si>
-  <si>
-    <t>Has a Take 5/SWMS been completed before works start</t>
-  </si>
-  <si>
-    <t>Fire Plug Number</t>
-  </si>
-  <si>
-    <t>Fire Plug Location IB or OB (Insert Maps Location Screenshot) Photo Required</t>
-  </si>
-  <si>
-    <t>Fire Plug Isolation Valve Location (Insert Maps Location Screenshot) Photo Required</t>
-  </si>
-  <si>
-    <t>Is the current hydrant cover adequately sized and positioned for maintanance (Photo Required)</t>
-  </si>
-  <si>
-    <t>Has any maintenance works been completed</t>
-  </si>
-  <si>
-    <t>COMMENTS</t>
-  </si>
-  <si>
-    <t>Final Sign off</t>
   </si>
   <si>
     <t>Transplumb Backflow Testing</t>
@@ -688,7 +652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L90"/>
+  <dimension ref="A1:L68"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
@@ -809,7 +773,7 @@
         <v>19</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -823,7 +787,7 @@
         <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -837,7 +801,7 @@
         <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -851,7 +815,7 @@
         <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -865,7 +829,7 @@
         <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -879,7 +843,7 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -893,7 +857,7 @@
         <v>19</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -907,7 +871,7 @@
         <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -921,7 +885,7 @@
         <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -935,7 +899,7 @@
         <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -949,7 +913,7 @@
         <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -963,7 +927,7 @@
         <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -977,49 +941,52 @@
         <v>19</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1033,7 +1000,7 @@
         <v>19</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1047,43 +1014,40 @@
         <v>19</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
         <v>13</v>
@@ -1092,12 +1056,12 @@
         <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -1106,7 +1070,7 @@
         <v>19</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -1120,80 +1084,80 @@
         <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D29" t="s">
-        <v>19</v>
-      </c>
-      <c r="E29" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
         <v>47</v>
       </c>
-      <c r="C30" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L30" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="2" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K32" s="2" t="s">
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>50</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>51</v>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s">
+        <v>19</v>
+      </c>
+      <c r="E32" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1207,7 +1171,7 @@
         <v>19</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1221,7 +1185,7 @@
         <v>19</v>
       </c>
       <c r="E34" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1235,49 +1199,52 @@
         <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
         <v>13</v>
       </c>
       <c r="D36" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E36" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" t="s">
-        <v>24</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -1291,77 +1258,92 @@
         <v>19</v>
       </c>
       <c r="E39" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>59</v>
+      </c>
+      <c r="B40" t="s">
+        <v>60</v>
       </c>
       <c r="C40" t="s">
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E40" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>59</v>
+      </c>
+      <c r="B41" t="s">
+        <v>63</v>
       </c>
       <c r="C41" t="s">
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E41" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>18</v>
+        <v>59</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
       </c>
       <c r="C42" t="s">
         <v>13</v>
       </c>
       <c r="D42" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E42" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
       </c>
       <c r="C43" t="s">
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E43" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>59</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
       </c>
       <c r="C44" t="s">
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="E44" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -1375,7 +1357,7 @@
         <v>19</v>
       </c>
       <c r="E45" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -1389,7 +1371,7 @@
         <v>19</v>
       </c>
       <c r="E46" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -1403,52 +1385,49 @@
         <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C48" t="s">
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F50" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="L50" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -1462,7 +1441,7 @@
         <v>19</v>
       </c>
       <c r="E51" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1476,7 +1455,7 @@
         <v>19</v>
       </c>
       <c r="E52" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -1490,49 +1469,52 @@
         <v>19</v>
       </c>
       <c r="E53" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C54" t="s">
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E54" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" t="s">
-        <v>13</v>
-      </c>
-      <c r="D55" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" t="s">
-        <v>13</v>
-      </c>
-      <c r="D56" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" t="s">
-        <v>66</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -1546,52 +1528,49 @@
         <v>19</v>
       </c>
       <c r="E57" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="E58" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2"/>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L60" s="2" t="s">
-        <v>70</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>19</v>
+      </c>
+      <c r="E59" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>19</v>
+      </c>
+      <c r="E60" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -1605,420 +1584,94 @@
         <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>71</v>
-      </c>
-      <c r="B62" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="C63" t="s">
         <v>13</v>
       </c>
       <c r="D63" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E63" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E64" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>71</v>
-      </c>
-      <c r="B65" t="s">
-        <v>79</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E65" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" t="s">
-        <v>81</v>
+        <v>18</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="E67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>18</v>
-      </c>
-      <c r="C68" t="s">
-        <v>13</v>
-      </c>
-      <c r="D68" t="s">
-        <v>19</v>
-      </c>
-      <c r="E68" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" t="s">
-        <v>13</v>
-      </c>
-      <c r="D69" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" t="s">
-        <v>13</v>
-      </c>
-      <c r="D70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" t="s">
-        <v>13</v>
-      </c>
-      <c r="D71" t="s">
-        <v>19</v>
-      </c>
-      <c r="E71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>18</v>
-      </c>
-      <c r="C72" t="s">
-        <v>13</v>
-      </c>
-      <c r="D72" t="s">
-        <v>19</v>
-      </c>
-      <c r="E72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>18</v>
-      </c>
-      <c r="C73" t="s">
-        <v>13</v>
-      </c>
-      <c r="D73" t="s">
-        <v>19</v>
-      </c>
-      <c r="E73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>18</v>
-      </c>
-      <c r="C74" t="s">
-        <v>13</v>
-      </c>
-      <c r="D74" t="s">
-        <v>19</v>
-      </c>
-      <c r="E74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>18</v>
-      </c>
-      <c r="C75" t="s">
-        <v>13</v>
-      </c>
-      <c r="D75" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>47</v>
-      </c>
-      <c r="C76" t="s">
-        <v>13</v>
-      </c>
-      <c r="D76" t="s">
-        <v>48</v>
-      </c>
-      <c r="E76" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D78" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G78" s="2"/>
-      <c r="H78" s="2"/>
-      <c r="I78" s="2"/>
-      <c r="J78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K78" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" t="s">
-        <v>13</v>
-      </c>
-      <c r="D79" t="s">
-        <v>19</v>
-      </c>
-      <c r="E79" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>18</v>
-      </c>
-      <c r="C80" t="s">
-        <v>13</v>
-      </c>
-      <c r="D80" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>18</v>
-      </c>
-      <c r="C81" t="s">
-        <v>13</v>
-      </c>
-      <c r="D81" t="s">
-        <v>19</v>
-      </c>
-      <c r="E81" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>18</v>
-      </c>
-      <c r="C82" t="s">
-        <v>13</v>
-      </c>
-      <c r="D82" t="s">
-        <v>19</v>
-      </c>
-      <c r="E82" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>18</v>
-      </c>
-      <c r="C83" t="s">
-        <v>13</v>
-      </c>
-      <c r="D83" t="s">
-        <v>19</v>
-      </c>
-      <c r="E83" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>18</v>
-      </c>
-      <c r="C84" t="s">
-        <v>13</v>
-      </c>
-      <c r="D84" t="s">
-        <v>19</v>
-      </c>
-      <c r="E84" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>18</v>
-      </c>
-      <c r="C85" t="s">
-        <v>13</v>
-      </c>
-      <c r="D85" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>18</v>
-      </c>
-      <c r="C86" t="s">
-        <v>13</v>
-      </c>
-      <c r="D86" t="s">
-        <v>19</v>
-      </c>
-      <c r="E86" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" t="s">
-        <v>13</v>
-      </c>
-      <c r="D87" t="s">
-        <v>19</v>
-      </c>
-      <c r="E87" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" t="s">
-        <v>19</v>
-      </c>
-      <c r="E88" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>47</v>
-      </c>
-      <c r="C89" t="s">
-        <v>13</v>
-      </c>
-      <c r="D89" t="s">
-        <v>48</v>
-      </c>
-      <c r="E89" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
